--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC727AAC-2017-4857-87D4-19F3C81AEA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30646B6-CC0C-41C1-B28D-3FBAD51BC322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>Usuario</t>
   </si>
@@ -102,9 +102,6 @@
     <t>silverarrow</t>
   </si>
   <si>
-    <t>vguilarducci</t>
-  </si>
-  <si>
     <t>CAMPANIA</t>
   </si>
   <si>
@@ -126,15 +123,6 @@
     <t>TipoPlazo</t>
   </si>
   <si>
-    <t>SME001</t>
-  </si>
-  <si>
-    <t>ABC12SME001</t>
-  </si>
-  <si>
-    <t>ZAZ123SME001</t>
-  </si>
-  <si>
     <t>1.VUELVE CLIENTE</t>
   </si>
   <si>
@@ -187,6 +175,15 @@
   </si>
   <si>
     <t>Anual</t>
+  </si>
+  <si>
+    <t>RPR006</t>
+  </si>
+  <si>
+    <t>ZAZ123SRPR006</t>
+  </si>
+  <si>
+    <t>ABC12SRPR006</t>
   </si>
 </sst>
 </file>
@@ -540,7 +537,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -597,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
@@ -638,13 +635,13 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="3">
-        <v>3953632394</v>
+        <v>8847544113</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -653,19 +650,19 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>2020</v>
@@ -674,22 +671,22 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2">
         <v>1000000</v>
       </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
         <v>19</v>
@@ -697,16 +694,16 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
         <v>1143792935</v>
@@ -718,19 +715,19 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M3">
         <v>2021</v>
@@ -739,22 +736,22 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3">
         <v>1000000</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
         <v>40</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>44</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
       </c>
       <c r="U3" t="s">
         <v>19</v>
@@ -762,16 +759,16 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3">
         <v>1143792935</v>
@@ -783,19 +780,19 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>2021</v>
@@ -804,22 +801,22 @@
         <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4">
         <v>1000000</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
         <v>41</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>45</v>
-      </c>
-      <c r="T4" t="s">
-        <v>49</v>
       </c>
       <c r="U4" t="s">
         <v>19</v>
@@ -827,16 +824,16 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3">
         <v>1143792935</v>
@@ -848,19 +845,19 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M5">
         <v>2021</v>
@@ -869,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5">
         <v>1000000</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
         <v>42</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>46</v>
-      </c>
-      <c r="T5" t="s">
-        <v>50</v>
       </c>
       <c r="U5" t="s">
         <v>19</v>
@@ -892,16 +889,16 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3">
         <v>1143792935</v>
@@ -913,19 +910,19 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M6">
         <v>2021</v>
@@ -934,22 +931,22 @@
         <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6">
         <v>1000000</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
         <v>43</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>47</v>
-      </c>
-      <c r="T6" t="s">
-        <v>51</v>
       </c>
       <c r="U6" t="s">
         <v>19</v>

--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30646B6-CC0C-41C1-B28D-3FBAD51BC322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68135EDA-D17B-49EB-89CD-1E17C88F3E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>Usuario</t>
   </si>
@@ -184,6 +192,15 @@
   </si>
   <si>
     <t>ABC12SRPR006</t>
+  </si>
+  <si>
+    <t>Es0km</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -534,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,18 +568,18 @@
     <col min="7" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="12" width="21.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="13" max="14" width="5.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -603,31 +620,34 @@
         <v>7</v>
       </c>
       <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -668,31 +688,34 @@
         <v>2020</v>
       </c>
       <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1000000</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -733,31 +756,34 @@
         <v>2021</v>
       </c>
       <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>29</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1000000</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>26</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>40</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>44</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -797,32 +823,32 @@
       <c r="M4">
         <v>2021</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1000000</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>37</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>41</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>45</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -862,32 +888,32 @@
       <c r="M5">
         <v>2021</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>29</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1000000</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>26</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>38</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>42</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>46</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -927,68 +953,68 @@
       <c r="M6">
         <v>2021</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>29</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1000000</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>26</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>39</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>43</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>47</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="E16" s="1"/>
     </row>

--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC46B5A-273C-460C-A485-F609649DA31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BFDB5D-7D9E-4DD2-A533-BB8C6B513F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Usuario</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>ZAZ123SPA002</t>
+  </si>
+  <si>
+    <t>0566829607</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>19/03/2021</t>
   </si>
 </sst>
 </file>
@@ -227,12 +242,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -516,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,20 +642,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5746832029</v>
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -651,7 +667,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -965,8 +981,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4B1E539E-EEBE-46A1-8FCF-EBA4D4626469}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{848FDBF7-F9C0-420D-9F85-3726B6E8D161}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{848FDBF7-F9C0-420D-9F85-3726B6E8D161}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{75C13BCD-FFBD-4906-B5D5-B245492D4888}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BFDB5D-7D9E-4DD2-A533-BB8C6B513F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0718F-9779-4DE5-ABD0-49DEB1AB8CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>Anual</t>
   </si>
   <si>
-    <t>10/03/2021</t>
-  </si>
-  <si>
     <t>SPA001</t>
   </si>
   <si>
@@ -164,15 +161,6 @@
     <t>ZAZ123SPA001</t>
   </si>
   <si>
-    <t>SPA002</t>
-  </si>
-  <si>
-    <t>ABC12SPA002</t>
-  </si>
-  <si>
-    <t>ZAZ123SPA002</t>
-  </si>
-  <si>
     <t>0566829607</t>
   </si>
   <si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>19/03/2021</t>
+  </si>
+  <si>
+    <t>07/04/2021</t>
+  </si>
+  <si>
+    <t>RGA006</t>
+  </si>
+  <si>
+    <t>ABC12RGA006</t>
+  </si>
+  <si>
+    <t>ZAZ123RGA006</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,19 +643,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -667,7 +667,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -697,13 +697,13 @@
         <v>24</v>
       </c>
       <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
       </c>
       <c r="X2" t="s">
         <v>19</v>
@@ -729,7 +729,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="3">
-        <v>5746832029</v>
+        <v>3199801311</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -741,7 +741,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -771,13 +771,13 @@
         <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X3" t="s">
         <v>19</v>

--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0718F-9779-4DE5-ABD0-49DEB1AB8CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B235AF-CE6C-4B6F-967E-6634BF7C9355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,12 +143,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>Anual</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>ZAZ123SPA001</t>
   </si>
   <si>
-    <t>0566829607</t>
-  </si>
-  <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
@@ -173,19 +164,28 @@
     <t>gw</t>
   </si>
   <si>
-    <t>19/03/2021</t>
-  </si>
-  <si>
-    <t>07/04/2021</t>
-  </si>
-  <si>
-    <t>RGA006</t>
-  </si>
-  <si>
-    <t>ABC12RGA006</t>
-  </si>
-  <si>
-    <t>ZAZ123RGA006</t>
+    <t>26/04/2021</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>RGM006</t>
+  </si>
+  <si>
+    <t>ABC12RGM006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ZAZ123RGM006</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,19 +643,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1728150905</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -664,10 +664,10 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -697,13 +697,13 @@
         <v>24</v>
       </c>
       <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
         <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
       </c>
       <c r="X2" t="s">
         <v>19</v>
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -738,10 +738,10 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -771,10 +771,10 @@
         <v>24</v>
       </c>
       <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
         <v>48</v>
-      </c>
-      <c r="V3" t="s">
-        <v>49</v>
       </c>
       <c r="W3" t="s">
         <v>50</v>
@@ -791,6 +791,9 @@
       <c r="F4" s="3"/>
       <c r="J4" s="4"/>
       <c r="N4" s="2"/>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>

--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B235AF-CE6C-4B6F-967E-6634BF7C9355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA96B12-E74F-42CB-AD10-2714DE9A3F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>03/05/2021</t>
-  </si>
-  <si>
     <t>RGM006</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>ZAZ123RGM006</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +741,7 @@
         <v>36</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -771,13 +771,13 @@
         <v>24</v>
       </c>
       <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
         <v>47</v>
       </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
         <v>19</v>
@@ -792,7 +792,7 @@
       <c r="J4" s="4"/>
       <c r="N4" s="2"/>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA96B12-E74F-42CB-AD10-2714DE9A3F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFF755-E457-4AA2-B395-EAA335A08F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="3">
-        <v>3199801311</v>
+        <v>7145989545</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>

--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFF755-E457-4AA2-B395-EAA335A08F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E8147-E782-4147-9D0E-3A837DD6454F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
     <t>ZAZ123RGM006</t>
   </si>
   <si>
-    <t>06/05/2021</t>
+    <t>17/06/2021</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="3">
-        <v>7145989545</v>
+        <v>7068873718</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>

--- a/Sura/DataSource - Emision Motor_Answer.xlsx
+++ b/Sura/DataSource - Emision Motor_Answer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFF755-E457-4AA2-B395-EAA335A08F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A47F2-AABF-4E71-B21A-357241B37862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Usuario</t>
   </si>
@@ -186,6 +178,15 @@
   </si>
   <si>
     <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>TR - Todo Riesgo Franquicia Fija</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
@@ -530,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,10 +718,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -729,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="3">
-        <v>7145989545</v>
+        <v>8342166354</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -740,9 +741,7 @@
       <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="K3" t="s">
         <v>17</v>
       </c>
@@ -768,16 +767,16 @@
         <v>1380000</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
         <v>19</v>
@@ -787,12 +786,77 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="N4" s="2"/>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7145989545</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <v>2021</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <v>1380000</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -800,6 +864,9 @@
       <c r="F5" s="3"/>
       <c r="J5" s="4"/>
       <c r="N5" s="2"/>
+      <c r="V5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
@@ -981,13 +1048,20 @@
       <c r="J35" s="4"/>
       <c r="N35" s="2"/>
     </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="F36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="N36" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{848FDBF7-F9C0-420D-9F85-3726B6E8D161}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{848FDBF7-F9C0-420D-9F85-3726B6E8D161}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{75C13BCD-FFBD-4906-B5D5-B245492D4888}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{AED79FC7-B4AC-484D-B732-07FBA2ACB3DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>